--- a/aisler preisberechnung.xlsx
+++ b/aisler preisberechnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e7d6e70432d7a81/Dokumente/!Camper/battery_bms/bms_hw_voltmod/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92F83FC6-D587-4719-AD3F-B66F2169AC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{92F83FC6-D587-4719-AD3F-B66F2169AC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84B899FD-CBC6-423A-A9DE-106180E097BC}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E1F44678-E748-47B9-9785-FD8F24705236}"/>
   </bookViews>
@@ -104,9 +104,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -422,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0201A246-584E-4AB9-8503-E75E6A50421C}">
-  <dimension ref="F7:L18"/>
+  <dimension ref="F7:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +472,7 @@
       <c r="J9">
         <v>7</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <f>(I9*J9*H9*3)+G9</f>
         <v>16.41</v>
       </c>
@@ -498,7 +497,7 @@
       <c r="J10">
         <v>7</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <f>(I10*J10*H10*3)+G10</f>
         <v>24.285000000000004</v>
       </c>
@@ -508,16 +507,7 @@
       </c>
     </row>
     <row r="11" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="K11" s="2"/>
-    </row>
-    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L18" s="1"/>
+      <c r="K11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
